--- a/docs/mcode-r4/shr-core-LandmarkToBodyLocationDirection-extension.xlsx
+++ b/docs/mcode-r4/shr-core-LandmarkToBodyLocationDirection-extension.xlsx
@@ -203,7 +203,7 @@
     <t>clockfacedirection</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ClockFaceDirection-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-ClockFaceDirection-extension}
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>anatomicaldirection</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-AnatomicalDirection-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-AnatomicalDirection-extension}
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkToBodyLocationDirection-extension</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-LandmarkToBodyLocationDirection-extension</t>
   </si>
   <si>
     <t>Extension.value[x]</t>

--- a/docs/mcode-r4/shr-core-LandmarkToBodyLocationDirection-extension.xlsx
+++ b/docs/mcode-r4/shr-core-LandmarkToBodyLocationDirection-extension.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$6</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="72">
   <si>
     <t>Path</t>
   </si>
@@ -145,7 +145,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}choice-1:shr-core-LandmarkToBodyLocationDirection-extension SHALL have either extension('clockfacedirection') or extension('anatomicaldirection') {( extension('clockfacedirection').url | extension('anatomicaldirection').url ).distinct().count() == 1}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -200,26 +200,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>clockfacedirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-ClockFaceDirection-extension}
-</t>
-  </si>
-  <si>
-    <t>A direction indicated by an angle relative to 12 o'clock.</t>
-  </si>
-  <si>
-    <t>anatomicaldirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-AnatomicalDirection-extension}
-</t>
-  </si>
-  <si>
-    <t>A direction based on planes, surfaces, and orientations of the body.</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -239,17 +219,26 @@
     <t>http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-LandmarkToBodyLocationDirection-extension</t>
   </si>
   <si>
+    <t>Extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/shr-core-AnatomicalDirectionVS</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](extensibility.html) for a list).</t>
   </si>
 </sst>
 </file>
@@ -398,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -407,8 +396,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.95703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -431,7 +420,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.4453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -758,7 +747,7 @@
         <v>37</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>36</v>
@@ -846,17 +835,15 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s" s="2">
         <v>59</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>44</v>
@@ -873,18 +860,22 @@
       <c r="J5" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="L5" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>36</v>
@@ -926,13 +917,13 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>36</v>
@@ -943,17 +934,15 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>62</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>44</v>
@@ -968,11 +957,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="L6" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -999,13 +990,11 @@
         <v>36</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="X6" s="2"/>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>36</v>
@@ -1023,219 +1012,23 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" hidden="true">
-      <c r="A7" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" hidden="true">
-      <c r="A8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI8" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI8">
+  <autoFilter ref="A1:AI6">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1245,7 +1038,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI7">
+  <conditionalFormatting sqref="A2:AI5">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
